--- a/data/cattle data 2020.xlsx
+++ b/data/cattle data 2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/41756102466679fd/Documents/Carpenter-Gardin-Knoll-2022-EDA-Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="14_{9B6B7B4D-4D6B-45A7-8B83-261A198F804D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32EE984A-A54F-4A71-9354-7E854430964D}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="14_{9B6B7B4D-4D6B-45A7-8B83-261A198F804D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E729D05-72EE-4F3C-978B-BDAC19FAE58F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{0119E8F1-11EB-4DD9-A3AC-C5A031A05E9C}"/>
+    <workbookView minimized="1" xWindow="4515" yWindow="2850" windowWidth="10155" windowHeight="7365" xr2:uid="{0119E8F1-11EB-4DD9-A3AC-C5A031A05E9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,9 +64,6 @@
     <t>Polk</t>
   </si>
   <si>
-    <t>Red lake</t>
-  </si>
-  <si>
     <t>Roseau</t>
   </si>
   <si>
@@ -85,18 +82,12 @@
     <t>Koochiching</t>
   </si>
   <si>
-    <t>Lake of the woods</t>
-  </si>
-  <si>
     <t>Cook</t>
   </si>
   <si>
     <t>Lake</t>
   </si>
   <si>
-    <t>St. Louis</t>
-  </si>
-  <si>
     <t xml:space="preserve">Big Stone </t>
   </si>
   <si>
@@ -244,9 +235,6 @@
     <t>Brown</t>
   </si>
   <si>
-    <t>Fairibault</t>
-  </si>
-  <si>
     <t>Freeborn</t>
   </si>
   <si>
@@ -332,6 +320,18 @@
   </si>
   <si>
     <t>district</t>
+  </si>
+  <si>
+    <t>Faribault</t>
+  </si>
+  <si>
+    <t>Lake of the Woods</t>
+  </si>
+  <si>
+    <t>Red Lake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St. Louis </t>
   </si>
 </sst>
 </file>
@@ -686,7 +686,7 @@
   <dimension ref="A1:C88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,13 +696,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -713,7 +713,7 @@
         <v>26000</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -724,7 +724,7 @@
         <v>9700</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -735,7 +735,7 @@
         <v>16000</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -746,7 +746,7 @@
         <v>10600</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -757,7 +757,7 @@
         <v>5300</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -768,7 +768,7 @@
         <v>10400</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -779,7 +779,7 @@
         <v>3600</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -790,7 +790,7 @@
         <v>8400</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -801,865 +801,865 @@
         <v>13400</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="B11">
         <v>6300</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>15700</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>16000</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>20500</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>6700</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>4400</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>3800</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B19">
         <v>100</v>
       </c>
       <c r="C19" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20">
         <v>100</v>
       </c>
       <c r="C20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B21">
         <v>10200</v>
       </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B22">
         <v>12900</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B23">
         <v>22000</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B24">
         <v>19400</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B25">
         <v>14200</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B26">
         <v>15200</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B27">
         <v>76000</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B28">
         <v>26500</v>
       </c>
       <c r="C28" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B29">
         <v>57000</v>
       </c>
       <c r="C29" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B30">
         <v>30500</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B31">
         <v>13100</v>
       </c>
       <c r="C31" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B32">
         <v>2700</v>
       </c>
       <c r="C32" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B33">
         <v>27000</v>
       </c>
       <c r="C33" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B34">
         <v>32500</v>
       </c>
       <c r="C34" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B35">
         <v>21500</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B36">
         <v>45500</v>
       </c>
       <c r="C36" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B37">
         <v>25500</v>
       </c>
       <c r="C37" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B38">
         <v>29500</v>
       </c>
       <c r="C38" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B39">
         <v>86000</v>
       </c>
       <c r="C39" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B40">
         <v>25000</v>
       </c>
       <c r="C40" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B41">
         <v>14900</v>
       </c>
       <c r="C41" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B42">
         <v>8800</v>
       </c>
       <c r="C42" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B43">
         <v>33500</v>
       </c>
       <c r="C43" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B44">
         <v>195000</v>
       </c>
       <c r="C44" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B45">
         <v>54000</v>
       </c>
       <c r="C45" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B46">
         <v>12500</v>
       </c>
       <c r="C46" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B47">
         <v>31000</v>
       </c>
       <c r="C47" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B48">
         <v>8400</v>
       </c>
       <c r="C48" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B49">
         <v>1000</v>
       </c>
       <c r="C49" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B50">
         <v>9700</v>
       </c>
       <c r="C50" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B51">
         <v>9800</v>
       </c>
       <c r="C51" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B52">
         <v>7200</v>
       </c>
       <c r="C52" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B53">
         <v>5300</v>
       </c>
       <c r="C53" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B54">
         <v>7500</v>
       </c>
       <c r="C54" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B55">
         <v>11400</v>
       </c>
       <c r="C55" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B56">
         <v>16900</v>
       </c>
       <c r="C56" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B57">
         <v>20500</v>
       </c>
       <c r="C57" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B59">
         <v>5300</v>
       </c>
       <c r="C59" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B60">
         <v>31500</v>
       </c>
       <c r="C60" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B61">
         <v>15700</v>
       </c>
       <c r="C61" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B62">
         <v>21500</v>
       </c>
       <c r="C62" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B63">
         <v>56000</v>
       </c>
       <c r="C63" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B64">
         <v>52000</v>
       </c>
       <c r="C64" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B65">
         <v>90000</v>
       </c>
       <c r="C65" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B66">
         <v>58000</v>
       </c>
       <c r="C66" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B67">
         <v>45500</v>
       </c>
       <c r="C67" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B68">
         <v>91000</v>
       </c>
       <c r="C68" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B69">
         <v>11900</v>
       </c>
       <c r="C69" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B70">
         <v>41000</v>
       </c>
       <c r="C70" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="B71">
         <v>13300</v>
       </c>
       <c r="C71" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B72">
         <v>17700</v>
       </c>
       <c r="C72" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B73">
         <v>12800</v>
       </c>
       <c r="C73" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B74">
         <v>20500</v>
       </c>
       <c r="C74" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B75">
         <v>26000</v>
       </c>
       <c r="C75" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B76">
         <v>20000</v>
       </c>
       <c r="C76" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B77">
         <v>12700</v>
       </c>
       <c r="C77" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B78">
         <v>12500</v>
       </c>
       <c r="C78" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B79">
         <v>3600</v>
       </c>
       <c r="C79" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B80">
         <v>22000</v>
       </c>
       <c r="C80" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B81">
         <v>15800</v>
       </c>
       <c r="C81" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B82">
         <v>58000</v>
       </c>
       <c r="C82" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B83">
         <v>69000</v>
       </c>
       <c r="C83" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B84">
         <v>42500</v>
       </c>
       <c r="C84" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B85">
         <v>29000</v>
       </c>
       <c r="C85" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B86">
         <v>43000</v>
       </c>
       <c r="C86" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B87">
         <v>55000</v>
       </c>
       <c r="C87" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B88">
         <v>69000</v>
       </c>
       <c r="C88" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
